--- a/papers/qsic2011/evaluation.xlsx
+++ b/papers/qsic2011/evaluation.xlsx
@@ -138,9 +138,6 @@
     <t>direct call</t>
   </si>
   <si>
-    <t>his[ optall.queue === false ? "each" : "queue" ](function() {})</t>
-  </si>
-  <si>
     <t>commandLinePopup.js</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>startButtonOverlay.js</t>
+  </si>
+  <si>
+    <t>this[ optall.queue === false ? "each" : "queue" ](function() {})</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1003,7 +1003,7 @@
         <v>27</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -1151,10 +1151,10 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1635,19 +1635,31 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="E23" s="1">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>227</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1659,7 +1671,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1671,7 +1683,7 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1683,7 +1695,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1695,7 +1707,7 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1707,7 +1719,7 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1719,7 +1731,7 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1731,7 +1743,7 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1743,7 +1755,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1755,7 +1767,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -1767,7 +1779,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -1779,7 +1791,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -1791,7 +1803,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -1803,7 +1815,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1815,7 +1827,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -1827,7 +1839,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -1839,7 +1851,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1851,7 +1863,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -1863,7 +1875,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1875,7 +1887,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -1887,7 +1899,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -1899,7 +1911,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1911,7 +1923,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1923,7 +1935,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -1935,7 +1947,7 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -1947,7 +1959,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -1959,7 +1971,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -1971,7 +1983,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -1983,7 +1995,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -1995,7 +2007,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2007,7 +2019,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2019,7 +2031,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2031,7 +2043,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2043,7 +2055,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -2055,7 +2067,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -2067,7 +2079,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2086,15 +2098,15 @@
       </c>
       <c r="C61" s="1">
         <f>SUM(C3:C60)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="1">
         <f>SUM(D3:D60)</f>
-        <v>1302</v>
+        <v>1548</v>
       </c>
       <c r="E61" s="1">
         <f>SUM(E3:E60)</f>
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F61" s="1">
         <f>SUM(F3:F60)</f>
@@ -2102,11 +2114,11 @@
       </c>
       <c r="G61" s="1">
         <f>SUM(G3:G60)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H61" s="1">
         <f>SUM(H3:H60)</f>
-        <v>916</v>
+        <v>1143</v>
       </c>
       <c r="I61" s="1">
         <f>SUM(I3:I60)</f>
@@ -2114,7 +2126,7 @@
       </c>
       <c r="J61" s="1">
         <f>SUM(J3:J60)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K61" s="1">
         <f>SUM(K3:K60)</f>
